--- a/resource/文档说明.xlsx
+++ b/resource/文档说明.xlsx
@@ -14,9 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,9 +392,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -386,6 +405,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
